--- a/edited/elective_list/hus.xlsx
+++ b/edited/elective_list/hus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\졸업학점 프로그램 제작\edited\elective_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC933FA-1D61-43C7-A198-FE7ADDBDC406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1BAA8-5E3A-4368-AF2F-561EEF1F4F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16608" yWindow="2952" windowWidth="6432" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="135">
   <si>
     <t>교과목</t>
   </si>
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
@@ -1049,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1105,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -1161,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="s">
         <v>71</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D27" t="s">
         <v>76</v>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D30" t="s">
         <v>79</v>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D36" t="s">
         <v>85</v>
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
         <v>86</v>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D38" t="s">
         <v>87</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40" t="s">
         <v>89</v>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D42" t="s">
         <v>91</v>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
         <v>92</v>
@@ -1497,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D44" t="s">
         <v>93</v>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="s">
         <v>95</v>
@@ -1525,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D46" t="s">
         <v>96</v>
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D48" t="s">
         <v>98</v>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
         <v>100</v>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D51" t="s">
         <v>101</v>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D52" t="s">
         <v>102</v>
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="s">
         <v>103</v>
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D54" t="s">
         <v>104</v>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D55" t="s">
         <v>105</v>
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D56" t="s">
         <v>106</v>
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
         <v>107</v>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D59" t="s">
         <v>109</v>
@@ -1721,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D61" t="s">
         <v>111</v>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D62" t="s">
         <v>112</v>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D63" t="s">
         <v>97</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D64" t="s">
         <v>113</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D65" t="s">
         <v>94</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D66" t="s">
         <v>50</v>
@@ -1819,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D67" t="s">
         <v>51</v>
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D68" t="s">
         <v>52</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D69" t="s">
         <v>53</v>
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D71" t="s">
         <v>56</v>
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D72" t="s">
         <v>57</v>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D74" t="s">
         <v>59</v>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D75" t="s">
         <v>60</v>
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D76" t="s">
         <v>61</v>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D77" t="s">
         <v>62</v>
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="s">
         <v>63</v>
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D79" t="s">
         <v>64</v>
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D80" t="s">
         <v>65</v>
@@ -2015,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D81" t="s">
         <v>66</v>
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D82" t="s">
         <v>67</v>
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D83" t="s">
         <v>68</v>
@@ -2057,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D84" t="s">
         <v>69</v>
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D85" t="s">
         <v>70</v>
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D86" t="s">
         <v>71</v>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D87" t="s">
         <v>72</v>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D88" t="s">
         <v>73</v>
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D89" t="s">
         <v>74</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D93" t="s">
         <v>78</v>
@@ -2197,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D96" t="s">
         <v>81</v>
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D97" t="s">
         <v>82</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D98" t="s">
         <v>83</v>
@@ -2267,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="s">
         <v>84</v>
@@ -2281,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D100" t="s">
         <v>85</v>
@@ -2295,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D101" t="s">
         <v>86</v>
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D102" t="s">
         <v>87</v>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D103" t="s">
         <v>88</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D104" t="s">
         <v>89</v>
@@ -2351,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D105" t="s">
         <v>90</v>
@@ -2365,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="s">
         <v>91</v>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D107" t="s">
         <v>92</v>
@@ -2393,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D108" t="s">
         <v>93</v>
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D109" t="s">
         <v>95</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D110" t="s">
         <v>96</v>
@@ -2435,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D111" t="s">
         <v>55</v>
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D112" t="s">
         <v>98</v>
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="s">
         <v>99</v>
@@ -2477,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D114" t="s">
         <v>100</v>
@@ -2491,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D115" t="s">
         <v>101</v>
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D116" t="s">
         <v>102</v>
@@ -2519,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D117" t="s">
         <v>103</v>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D118" t="s">
         <v>104</v>
@@ -2547,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D119" t="s">
         <v>105</v>
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D120" t="s">
         <v>106</v>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D121" t="s">
         <v>107</v>
@@ -2589,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="s">
         <v>108</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D123" t="s">
         <v>109</v>
@@ -2617,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D124" t="s">
         <v>110</v>
@@ -2631,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D125" t="s">
         <v>111</v>
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D126" t="s">
         <v>112</v>
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D127" t="s">
         <v>97</v>
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D128" t="s">
         <v>113</v>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D129" t="s">
         <v>94</v>
@@ -2701,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D130" t="s">
         <v>50</v>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D131" t="s">
         <v>51</v>
@@ -2729,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D132" t="s">
         <v>52</v>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D133" t="s">
         <v>53</v>
@@ -2757,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D134" t="s">
         <v>54</v>
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D135" t="s">
         <v>56</v>
@@ -2785,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D136" t="s">
         <v>57</v>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D137" t="s">
         <v>58</v>
@@ -2813,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D138" t="s">
         <v>59</v>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D139" t="s">
         <v>60</v>
@@ -2841,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D140" t="s">
         <v>61</v>
@@ -2849,170 +2849,170 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B142">
         <v>3</v>
       </c>
       <c r="C142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D142" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <v>3</v>
       </c>
       <c r="C146">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D146" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="C147">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D150" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D151" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
@@ -3023,38 +3023,38 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
       <c r="C155">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
@@ -3065,24 +3065,24 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
@@ -3093,38 +3093,38 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
@@ -3135,24 +3135,24 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
@@ -3163,38 +3163,38 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
@@ -3205,10 +3205,10 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
@@ -3219,24 +3219,24 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
@@ -3247,24 +3247,24 @@
         <v>3</v>
       </c>
       <c r="C169">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B170">
         <v>3</v>
       </c>
       <c r="C170">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
@@ -3275,323 +3275,323 @@
         <v>3</v>
       </c>
       <c r="C171">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B172">
         <v>3</v>
       </c>
       <c r="C172">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="B173">
         <v>3</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B175">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
       <c r="C181">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
       <c r="C183">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
       <c r="C184">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B185">
         <v>3</v>
       </c>
       <c r="C185">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B186">
         <v>3</v>
       </c>
       <c r="C186">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B188">
         <v>3</v>
       </c>
       <c r="C188">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3600,21 +3600,21 @@
         <v>2018</v>
       </c>
       <c r="D194" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195">
         <v>2018</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
@@ -3625,290 +3625,290 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B198">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B199">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D200" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
       <c r="C201">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D201" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B203">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B204">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B206">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D207" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B208">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D208" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B209">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D209" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D210" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B211">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D211" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D212" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D213" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D214" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D215" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D216" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
@@ -3919,38 +3919,38 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D217" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D218" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D219" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
@@ -3961,24 +3961,24 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D220" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D221" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
@@ -3989,38 +3989,38 @@
         <v>3</v>
       </c>
       <c r="C222">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D223" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B224">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D224" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
@@ -4031,24 +4031,24 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
@@ -4059,52 +4059,52 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D228" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B229">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D230" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
@@ -4115,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="C231">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D231" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
@@ -4129,24 +4129,24 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D233" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
@@ -4157,24 +4157,24 @@
         <v>3</v>
       </c>
       <c r="C234">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D234" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B235">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D235" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
@@ -4185,1003 +4185,1899 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D236" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B237">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D238" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D239" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D241" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B242">
         <v>3</v>
       </c>
       <c r="C242">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D242" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B243">
         <v>3</v>
       </c>
       <c r="C243">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B244">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B250">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D260" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D261" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>3</v>
       </c>
       <c r="C262">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D262" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B263">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D263" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B264">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D264" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B265">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D265" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B266">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D266" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D267" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D268" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D269" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D270" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D271" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D272" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D273" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D274" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D275" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D276" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D277" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D278" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D279" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B280">
         <v>3</v>
       </c>
       <c r="C280">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D280" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B281">
         <v>3</v>
       </c>
       <c r="C281">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D281" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B282">
         <v>3</v>
       </c>
       <c r="C282">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D282" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B283">
         <v>3</v>
       </c>
       <c r="C283">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D283" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B284">
         <v>3</v>
       </c>
       <c r="C284">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D284" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B285">
         <v>3</v>
       </c>
       <c r="C285">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D285" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B286">
         <v>3</v>
       </c>
       <c r="C286">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D286" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B287">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D287" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D288" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D289" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D290" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D291" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B292">
         <v>3</v>
       </c>
       <c r="C292">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D292" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D293" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D294" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B295">
         <v>3</v>
       </c>
       <c r="C295">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D295" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D296" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D297" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D298" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D299" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B300">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D300" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D301" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D302" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B303">
         <v>3</v>
       </c>
       <c r="C303">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D303" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B304">
         <v>3</v>
       </c>
       <c r="C304">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D304" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B305">
         <v>3</v>
       </c>
       <c r="C305">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D305" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B306">
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D306" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
+        <v>39</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>2017</v>
+      </c>
+      <c r="D307" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>40</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>2017</v>
+      </c>
+      <c r="D308" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>40</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>2017</v>
+      </c>
+      <c r="D309" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>40</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>2017</v>
+      </c>
+      <c r="D310" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>41</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>2017</v>
+      </c>
+      <c r="D311" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>41</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>2017</v>
+      </c>
+      <c r="D312" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>42</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>2017</v>
+      </c>
+      <c r="D313" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>43</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>2017</v>
+      </c>
+      <c r="D314" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>129</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>2017</v>
+      </c>
+      <c r="D315" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>46</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>2017</v>
+      </c>
+      <c r="D316" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>46</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>2017</v>
+      </c>
+      <c r="D317" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
         <v>47</v>
       </c>
-      <c r="B307">
-        <v>3</v>
-      </c>
-      <c r="C307">
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>2017</v>
+      </c>
+      <c r="D318" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
         <v>2016</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>2016</v>
+      </c>
+      <c r="D320" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>2016</v>
+      </c>
+      <c r="D321" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>2016</v>
+      </c>
+      <c r="D322" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>2016</v>
+      </c>
+      <c r="D323" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>131</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>2016</v>
+      </c>
+      <c r="D324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>2016</v>
+      </c>
+      <c r="D325" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>2016</v>
+      </c>
+      <c r="D326" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>2016</v>
+      </c>
+      <c r="D327" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>2016</v>
+      </c>
+      <c r="D328" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>2016</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>2016</v>
+      </c>
+      <c r="D330" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>14</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>2016</v>
+      </c>
+      <c r="D331" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>2016</v>
+      </c>
+      <c r="D332" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>16</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>2016</v>
+      </c>
+      <c r="D333" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>2016</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>117</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>2016</v>
+      </c>
+      <c r="D335" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>2016</v>
+      </c>
+      <c r="D336" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>2016</v>
+      </c>
+      <c r="D337" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>2016</v>
+      </c>
+      <c r="D338" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>2016</v>
+      </c>
+      <c r="D339" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>2016</v>
+      </c>
+      <c r="D340" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>25</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>2016</v>
+      </c>
+      <c r="D341" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>25</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>2016</v>
+      </c>
+      <c r="D342" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>26</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>2016</v>
+      </c>
+      <c r="D343" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>27</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>2016</v>
+      </c>
+      <c r="D344" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>27</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345">
+        <v>2016</v>
+      </c>
+      <c r="D345" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>28</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>2016</v>
+      </c>
+      <c r="D346" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>28</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>2016</v>
+      </c>
+      <c r="D347" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>119</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>2016</v>
+      </c>
+      <c r="D348" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>120</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>2016</v>
+      </c>
+      <c r="D349" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>29</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>2016</v>
+      </c>
+      <c r="D350" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>2016</v>
+      </c>
+      <c r="D351" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>29</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>2016</v>
+      </c>
+      <c r="D352" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>30</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>2016</v>
+      </c>
+      <c r="D353" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>30</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>2016</v>
+      </c>
+      <c r="D354" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>31</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>2016</v>
+      </c>
+      <c r="D355" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>31</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>2016</v>
+      </c>
+      <c r="D356" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>123</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>2016</v>
+      </c>
+      <c r="D357" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>124</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>2016</v>
+      </c>
+      <c r="D358" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>125</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>2016</v>
+      </c>
+      <c r="D359" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>2016</v>
+      </c>
+      <c r="D360" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>40</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>2016</v>
+      </c>
+      <c r="D361" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>40</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>2016</v>
+      </c>
+      <c r="D362" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>40</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>2016</v>
+      </c>
+      <c r="D363" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>41</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>2016</v>
+      </c>
+      <c r="D364" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <v>2016</v>
+      </c>
+      <c r="D365" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>42</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>2016</v>
+      </c>
+      <c r="D366" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>43</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>2016</v>
+      </c>
+      <c r="D367" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>129</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>2016</v>
+      </c>
+      <c r="D368" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>46</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>2016</v>
+      </c>
+      <c r="D369" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>46</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>2016</v>
+      </c>
+      <c r="D370" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371">
+        <v>2016</v>
+      </c>
+      <c r="D371" t="s">
         <v>97</v>
       </c>
     </row>

--- a/edited/elective_list/hus.xlsx
+++ b/edited/elective_list/hus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1BAA8-5E3A-4368-AF2F-561EEF1F4F44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D3ABC4-6456-4CCB-BFA1-AC4670EC9F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3324" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="140">
   <si>
     <t>교과목</t>
   </si>
@@ -445,6 +445,26 @@
   </si>
   <si>
     <t>이상(李箱)문학과 과학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교종교학입문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3663</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교와 과학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2656</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 역사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1393,7 +1413,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1402,7 +1422,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1416,7 +1436,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1430,12 +1450,12 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1444,7 +1464,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1458,12 +1478,12 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1472,7 +1492,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1486,12 +1506,12 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1500,12 +1520,12 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1514,12 +1534,12 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1528,12 +1548,12 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -1542,12 +1562,12 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -1556,12 +1576,12 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1570,12 +1590,12 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1584,12 +1604,12 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1598,12 +1618,12 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1612,12 +1632,12 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1626,7 +1646,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1640,12 +1660,12 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1654,12 +1674,12 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -1668,12 +1688,12 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -1682,12 +1702,12 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1696,12 +1716,12 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -1710,12 +1730,12 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -1724,12 +1744,12 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -1738,12 +1758,12 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1752,12 +1772,12 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1766,12 +1786,12 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1780,68 +1800,68 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -1850,12 +1870,12 @@
         <v>2020</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1864,12 +1884,12 @@
         <v>2020</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1878,12 +1898,12 @@
         <v>2020</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -1892,12 +1912,12 @@
         <v>2020</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1906,12 +1926,12 @@
         <v>2020</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -1920,12 +1940,12 @@
         <v>2020</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -1934,12 +1954,12 @@
         <v>2020</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1948,12 +1968,12 @@
         <v>2020</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -1962,12 +1982,12 @@
         <v>2020</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1976,12 +1996,12 @@
         <v>2020</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1990,12 +2010,12 @@
         <v>2020</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2004,12 +2024,12 @@
         <v>2020</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2018,12 +2038,12 @@
         <v>2020</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2032,12 +2052,12 @@
         <v>2020</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2046,12 +2066,12 @@
         <v>2020</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2060,12 +2080,12 @@
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -2074,12 +2094,12 @@
         <v>2020</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2088,12 +2108,12 @@
         <v>2020</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -2102,12 +2122,12 @@
         <v>2020</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2116,12 +2136,12 @@
         <v>2020</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2130,12 +2150,12 @@
         <v>2020</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2144,12 +2164,12 @@
         <v>2020</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2158,12 +2178,12 @@
         <v>2020</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2172,12 +2192,12 @@
         <v>2020</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2186,12 +2206,12 @@
         <v>2020</v>
       </c>
       <c r="D93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2200,12 +2220,12 @@
         <v>2020</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2214,12 +2234,12 @@
         <v>2020</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -2228,12 +2248,12 @@
         <v>2020</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2242,12 +2262,12 @@
         <v>2020</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2256,12 +2276,12 @@
         <v>2020</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -2270,12 +2290,12 @@
         <v>2020</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2284,12 +2304,12 @@
         <v>2020</v>
       </c>
       <c r="D100" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2298,12 +2318,12 @@
         <v>2020</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2312,12 +2332,12 @@
         <v>2020</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2326,12 +2346,12 @@
         <v>2020</v>
       </c>
       <c r="D103" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2340,12 +2360,12 @@
         <v>2020</v>
       </c>
       <c r="D104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -2354,12 +2374,12 @@
         <v>2020</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2368,12 +2388,12 @@
         <v>2020</v>
       </c>
       <c r="D106" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -2382,12 +2402,12 @@
         <v>2020</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -2396,12 +2416,12 @@
         <v>2020</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2410,12 +2430,12 @@
         <v>2020</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -2424,12 +2444,12 @@
         <v>2020</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -2438,12 +2458,12 @@
         <v>2020</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2452,12 +2472,12 @@
         <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -2466,12 +2486,12 @@
         <v>2020</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -2480,12 +2500,12 @@
         <v>2020</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2494,12 +2514,12 @@
         <v>2020</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -2508,12 +2528,12 @@
         <v>2020</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -2522,12 +2542,12 @@
         <v>2020</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2536,12 +2556,12 @@
         <v>2020</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -2550,12 +2570,12 @@
         <v>2020</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -2564,12 +2584,12 @@
         <v>2020</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2578,12 +2598,12 @@
         <v>2020</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -2592,12 +2612,12 @@
         <v>2020</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -2606,12 +2626,12 @@
         <v>2020</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2620,12 +2640,12 @@
         <v>2020</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -2634,12 +2654,12 @@
         <v>2020</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -2648,12 +2668,12 @@
         <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -2662,12 +2682,12 @@
         <v>2020</v>
       </c>
       <c r="D127" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -2676,68 +2696,68 @@
         <v>2020</v>
       </c>
       <c r="D128" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2020</v>
       </c>
       <c r="D129" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -2746,12 +2766,12 @@
         <v>2019</v>
       </c>
       <c r="D133" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -2760,12 +2780,12 @@
         <v>2019</v>
       </c>
       <c r="D134" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -2774,12 +2794,12 @@
         <v>2019</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -2788,12 +2808,12 @@
         <v>2019</v>
       </c>
       <c r="D136" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -2802,12 +2822,12 @@
         <v>2019</v>
       </c>
       <c r="D137" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -2816,12 +2836,12 @@
         <v>2019</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2830,12 +2850,12 @@
         <v>2019</v>
       </c>
       <c r="D139" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -2844,12 +2864,12 @@
         <v>2019</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -2858,12 +2878,12 @@
         <v>2019</v>
       </c>
       <c r="D141" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2872,12 +2892,12 @@
         <v>2019</v>
       </c>
       <c r="D142" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2886,12 +2906,12 @@
         <v>2019</v>
       </c>
       <c r="D143" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -2900,12 +2920,12 @@
         <v>2019</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2914,12 +2934,12 @@
         <v>2019</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -2928,12 +2948,12 @@
         <v>2019</v>
       </c>
       <c r="D146" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -2942,12 +2962,12 @@
         <v>2019</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2956,12 +2976,12 @@
         <v>2019</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -2970,12 +2990,12 @@
         <v>2019</v>
       </c>
       <c r="D149" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -2984,12 +3004,12 @@
         <v>2019</v>
       </c>
       <c r="D150" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -2998,12 +3018,12 @@
         <v>2019</v>
       </c>
       <c r="D151" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3012,12 +3032,12 @@
         <v>2019</v>
       </c>
       <c r="D152" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3026,12 +3046,12 @@
         <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3040,12 +3060,12 @@
         <v>2019</v>
       </c>
       <c r="D154" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3054,12 +3074,12 @@
         <v>2019</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3068,12 +3088,12 @@
         <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3082,12 +3102,12 @@
         <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -3096,12 +3116,12 @@
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3110,12 +3130,12 @@
         <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3124,12 +3144,12 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3138,12 +3158,12 @@
         <v>2019</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3152,12 +3172,12 @@
         <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3166,12 +3186,12 @@
         <v>2019</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3180,12 +3200,12 @@
         <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3194,12 +3214,12 @@
         <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3208,12 +3228,12 @@
         <v>2019</v>
       </c>
       <c r="D166" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3222,12 +3242,12 @@
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3236,12 +3256,12 @@
         <v>2019</v>
       </c>
       <c r="D168" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3250,12 +3270,12 @@
         <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3264,12 +3284,12 @@
         <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3278,12 +3298,12 @@
         <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3292,12 +3312,12 @@
         <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3306,12 +3326,12 @@
         <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3320,12 +3340,12 @@
         <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3334,12 +3354,12 @@
         <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3348,12 +3368,12 @@
         <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3362,12 +3382,12 @@
         <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3376,12 +3396,12 @@
         <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -3390,12 +3410,12 @@
         <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3404,12 +3424,12 @@
         <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3418,12 +3438,12 @@
         <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3432,12 +3452,12 @@
         <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3446,12 +3466,12 @@
         <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3460,12 +3480,12 @@
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3474,12 +3494,12 @@
         <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3488,12 +3508,12 @@
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3502,12 +3522,12 @@
         <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3516,12 +3536,12 @@
         <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3530,12 +3550,12 @@
         <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3544,12 +3564,12 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3558,12 +3578,12 @@
         <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3572,68 +3592,68 @@
         <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193">
         <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B194">
         <v>3</v>
       </c>
       <c r="C194">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3642,12 +3662,12 @@
         <v>2018</v>
       </c>
       <c r="D197" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3656,12 +3676,12 @@
         <v>2018</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3670,12 +3690,12 @@
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -3684,12 +3704,12 @@
         <v>2018</v>
       </c>
       <c r="D200" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -3698,12 +3718,12 @@
         <v>2018</v>
       </c>
       <c r="D201" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -3712,12 +3732,12 @@
         <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -3726,12 +3746,12 @@
         <v>2018</v>
       </c>
       <c r="D203" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3740,12 +3760,12 @@
         <v>2018</v>
       </c>
       <c r="D204" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3754,12 +3774,12 @@
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -3768,12 +3788,12 @@
         <v>2018</v>
       </c>
       <c r="D206" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -3782,12 +3802,12 @@
         <v>2018</v>
       </c>
       <c r="D207" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3796,12 +3816,12 @@
         <v>2018</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -3810,12 +3830,12 @@
         <v>2018</v>
       </c>
       <c r="D209" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -3824,12 +3844,12 @@
         <v>2018</v>
       </c>
       <c r="D210" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -3838,12 +3858,12 @@
         <v>2018</v>
       </c>
       <c r="D211" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -3852,12 +3872,12 @@
         <v>2018</v>
       </c>
       <c r="D212" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -3866,12 +3886,12 @@
         <v>2018</v>
       </c>
       <c r="D213" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -3880,12 +3900,12 @@
         <v>2018</v>
       </c>
       <c r="D214" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -3894,12 +3914,12 @@
         <v>2018</v>
       </c>
       <c r="D215" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -3908,12 +3928,12 @@
         <v>2018</v>
       </c>
       <c r="D216" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -3922,12 +3942,12 @@
         <v>2018</v>
       </c>
       <c r="D217" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -3936,12 +3956,12 @@
         <v>2018</v>
       </c>
       <c r="D218" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -3950,12 +3970,12 @@
         <v>2018</v>
       </c>
       <c r="D219" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -3964,12 +3984,12 @@
         <v>2018</v>
       </c>
       <c r="D220" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -3978,12 +3998,12 @@
         <v>2018</v>
       </c>
       <c r="D221" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -3992,12 +4012,12 @@
         <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -4006,12 +4026,12 @@
         <v>2018</v>
       </c>
       <c r="D223" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B224">
         <v>3</v>
@@ -4020,12 +4040,12 @@
         <v>2018</v>
       </c>
       <c r="D224" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -4034,12 +4054,12 @@
         <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -4048,12 +4068,12 @@
         <v>2018</v>
       </c>
       <c r="D226" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -4062,12 +4082,12 @@
         <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -4076,12 +4096,12 @@
         <v>2018</v>
       </c>
       <c r="D228" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4090,12 +4110,12 @@
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -4104,12 +4124,12 @@
         <v>2018</v>
       </c>
       <c r="D230" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B231">
         <v>3</v>
@@ -4118,12 +4138,12 @@
         <v>2018</v>
       </c>
       <c r="D231" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -4132,12 +4152,12 @@
         <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B233">
         <v>3</v>
@@ -4146,12 +4166,12 @@
         <v>2018</v>
       </c>
       <c r="D233" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -4160,12 +4180,12 @@
         <v>2018</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -4174,12 +4194,12 @@
         <v>2018</v>
       </c>
       <c r="D235" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B236">
         <v>3</v>
@@ -4188,12 +4208,12 @@
         <v>2018</v>
       </c>
       <c r="D236" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B237">
         <v>3</v>
@@ -4202,12 +4222,12 @@
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -4216,12 +4236,12 @@
         <v>2018</v>
       </c>
       <c r="D238" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -4230,12 +4250,12 @@
         <v>2018</v>
       </c>
       <c r="D239" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B240">
         <v>3</v>
@@ -4244,12 +4264,12 @@
         <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -4258,12 +4278,12 @@
         <v>2018</v>
       </c>
       <c r="D241" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -4272,12 +4292,12 @@
         <v>2018</v>
       </c>
       <c r="D242" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -4286,12 +4306,12 @@
         <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4300,12 +4320,12 @@
         <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4314,12 +4334,12 @@
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4328,12 +4348,12 @@
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4342,12 +4362,12 @@
         <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -4356,12 +4376,12 @@
         <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B249">
         <v>3</v>
@@ -4370,12 +4390,12 @@
         <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4384,12 +4404,12 @@
         <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -4398,12 +4418,12 @@
         <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4412,12 +4432,12 @@
         <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4426,12 +4446,12 @@
         <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4440,12 +4460,12 @@
         <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4454,12 +4474,12 @@
         <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4468,12 +4488,12 @@
         <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4482,12 +4502,12 @@
         <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4496,68 +4516,68 @@
         <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C259">
         <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D260" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D262" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4566,12 +4586,12 @@
         <v>2017</v>
       </c>
       <c r="D263" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4580,12 +4600,12 @@
         <v>2017</v>
       </c>
       <c r="D264" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4594,12 +4614,12 @@
         <v>2017</v>
       </c>
       <c r="D265" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -4608,12 +4628,12 @@
         <v>2017</v>
       </c>
       <c r="D266" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -4622,12 +4642,12 @@
         <v>2017</v>
       </c>
       <c r="D267" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4636,12 +4656,12 @@
         <v>2017</v>
       </c>
       <c r="D268" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4650,12 +4670,12 @@
         <v>2017</v>
       </c>
       <c r="D269" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4664,12 +4684,12 @@
         <v>2017</v>
       </c>
       <c r="D270" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4678,12 +4698,12 @@
         <v>2017</v>
       </c>
       <c r="D271" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -4692,12 +4712,12 @@
         <v>2017</v>
       </c>
       <c r="D272" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -4706,12 +4726,12 @@
         <v>2017</v>
       </c>
       <c r="D273" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -4720,12 +4740,12 @@
         <v>2017</v>
       </c>
       <c r="D274" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -4734,12 +4754,12 @@
         <v>2017</v>
       </c>
       <c r="D275" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -4748,12 +4768,12 @@
         <v>2017</v>
       </c>
       <c r="D276" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -4762,12 +4782,12 @@
         <v>2017</v>
       </c>
       <c r="D277" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -4776,12 +4796,12 @@
         <v>2017</v>
       </c>
       <c r="D278" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -4790,12 +4810,12 @@
         <v>2017</v>
       </c>
       <c r="D279" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -4804,12 +4824,12 @@
         <v>2017</v>
       </c>
       <c r="D280" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -4818,12 +4838,12 @@
         <v>2017</v>
       </c>
       <c r="D281" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -4832,12 +4852,12 @@
         <v>2017</v>
       </c>
       <c r="D282" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -4846,12 +4866,12 @@
         <v>2017</v>
       </c>
       <c r="D283" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -4860,12 +4880,12 @@
         <v>2017</v>
       </c>
       <c r="D284" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -4874,12 +4894,12 @@
         <v>2017</v>
       </c>
       <c r="D285" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -4888,12 +4908,12 @@
         <v>2017</v>
       </c>
       <c r="D286" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -4902,12 +4922,12 @@
         <v>2017</v>
       </c>
       <c r="D287" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B288">
         <v>3</v>
@@ -4916,12 +4936,12 @@
         <v>2017</v>
       </c>
       <c r="D288" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -4930,12 +4950,12 @@
         <v>2017</v>
       </c>
       <c r="D289" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -4944,12 +4964,12 @@
         <v>2017</v>
       </c>
       <c r="D290" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B291">
         <v>3</v>
@@ -4958,12 +4978,12 @@
         <v>2017</v>
       </c>
       <c r="D291" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B292">
         <v>3</v>
@@ -4972,12 +4992,12 @@
         <v>2017</v>
       </c>
       <c r="D292" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -4986,12 +5006,12 @@
         <v>2017</v>
       </c>
       <c r="D293" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B294">
         <v>3</v>
@@ -5000,12 +5020,12 @@
         <v>2017</v>
       </c>
       <c r="D294" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5014,12 +5034,12 @@
         <v>2017</v>
       </c>
       <c r="D295" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5028,12 +5048,12 @@
         <v>2017</v>
       </c>
       <c r="D296" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5042,12 +5062,12 @@
         <v>2017</v>
       </c>
       <c r="D297" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B298">
         <v>3</v>
@@ -5056,12 +5076,12 @@
         <v>2017</v>
       </c>
       <c r="D298" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5070,12 +5090,12 @@
         <v>2017</v>
       </c>
       <c r="D299" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B300">
         <v>3</v>
@@ -5084,12 +5104,12 @@
         <v>2017</v>
       </c>
       <c r="D300" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5098,12 +5118,12 @@
         <v>2017</v>
       </c>
       <c r="D301" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B302">
         <v>3</v>
@@ -5112,12 +5132,12 @@
         <v>2017</v>
       </c>
       <c r="D302" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -5126,12 +5146,12 @@
         <v>2017</v>
       </c>
       <c r="D303" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -5140,12 +5160,12 @@
         <v>2017</v>
       </c>
       <c r="D304" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B305">
         <v>3</v>
@@ -5154,12 +5174,12 @@
         <v>2017</v>
       </c>
       <c r="D305" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -5168,12 +5188,12 @@
         <v>2017</v>
       </c>
       <c r="D306" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B307">
         <v>3</v>
@@ -5182,12 +5202,12 @@
         <v>2017</v>
       </c>
       <c r="D307" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5196,12 +5216,12 @@
         <v>2017</v>
       </c>
       <c r="D308" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B309">
         <v>3</v>
@@ -5210,12 +5230,12 @@
         <v>2017</v>
       </c>
       <c r="D309" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B310">
         <v>3</v>
@@ -5224,12 +5244,12 @@
         <v>2017</v>
       </c>
       <c r="D310" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5238,12 +5258,12 @@
         <v>2017</v>
       </c>
       <c r="D311" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -5252,12 +5272,12 @@
         <v>2017</v>
       </c>
       <c r="D312" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B313">
         <v>3</v>
@@ -5266,12 +5286,12 @@
         <v>2017</v>
       </c>
       <c r="D313" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B314">
         <v>3</v>
@@ -5280,12 +5300,12 @@
         <v>2017</v>
       </c>
       <c r="D314" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5294,12 +5314,12 @@
         <v>2017</v>
       </c>
       <c r="D315" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -5308,12 +5328,12 @@
         <v>2017</v>
       </c>
       <c r="D316" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -5322,12 +5342,12 @@
         <v>2017</v>
       </c>
       <c r="D317" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -5336,54 +5356,54 @@
         <v>2017</v>
       </c>
       <c r="D318" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
       <c r="C319">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D319" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B320">
         <v>3</v>
       </c>
       <c r="C320">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D320" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B321">
         <v>3</v>
       </c>
       <c r="C321">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D321" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B322">
         <v>3</v>
@@ -5392,12 +5412,12 @@
         <v>2016</v>
       </c>
       <c r="D322" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B323">
         <v>3</v>
@@ -5406,12 +5426,12 @@
         <v>2016</v>
       </c>
       <c r="D323" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B324">
         <v>3</v>
@@ -5420,12 +5440,12 @@
         <v>2016</v>
       </c>
       <c r="D324" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B325">
         <v>3</v>
@@ -5434,12 +5454,12 @@
         <v>2016</v>
       </c>
       <c r="D325" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B326">
         <v>3</v>
@@ -5448,12 +5468,12 @@
         <v>2016</v>
       </c>
       <c r="D326" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -5462,12 +5482,12 @@
         <v>2016</v>
       </c>
       <c r="D327" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B328">
         <v>3</v>
@@ -5476,12 +5496,12 @@
         <v>2016</v>
       </c>
       <c r="D328" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B329">
         <v>3</v>
@@ -5490,12 +5510,12 @@
         <v>2016</v>
       </c>
       <c r="D329" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B330">
         <v>3</v>
@@ -5504,12 +5524,12 @@
         <v>2016</v>
       </c>
       <c r="D330" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -5518,12 +5538,12 @@
         <v>2016</v>
       </c>
       <c r="D331" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -5532,12 +5552,12 @@
         <v>2016</v>
       </c>
       <c r="D332" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -5546,12 +5566,12 @@
         <v>2016</v>
       </c>
       <c r="D333" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5560,12 +5580,12 @@
         <v>2016</v>
       </c>
       <c r="D334" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5574,12 +5594,12 @@
         <v>2016</v>
       </c>
       <c r="D335" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -5588,12 +5608,12 @@
         <v>2016</v>
       </c>
       <c r="D336" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5602,12 +5622,12 @@
         <v>2016</v>
       </c>
       <c r="D337" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5616,12 +5636,12 @@
         <v>2016</v>
       </c>
       <c r="D338" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5630,12 +5650,12 @@
         <v>2016</v>
       </c>
       <c r="D339" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5644,12 +5664,12 @@
         <v>2016</v>
       </c>
       <c r="D340" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -5658,12 +5678,12 @@
         <v>2016</v>
       </c>
       <c r="D341" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -5672,12 +5692,12 @@
         <v>2016</v>
       </c>
       <c r="D342" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5686,12 +5706,12 @@
         <v>2016</v>
       </c>
       <c r="D343" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -5700,12 +5720,12 @@
         <v>2016</v>
       </c>
       <c r="D344" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5714,12 +5734,12 @@
         <v>2016</v>
       </c>
       <c r="D345" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -5728,12 +5748,12 @@
         <v>2016</v>
       </c>
       <c r="D346" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5742,12 +5762,12 @@
         <v>2016</v>
       </c>
       <c r="D347" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -5756,12 +5776,12 @@
         <v>2016</v>
       </c>
       <c r="D348" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -5770,12 +5790,12 @@
         <v>2016</v>
       </c>
       <c r="D349" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -5784,12 +5804,12 @@
         <v>2016</v>
       </c>
       <c r="D350" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -5798,12 +5818,12 @@
         <v>2016</v>
       </c>
       <c r="D351" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -5812,12 +5832,12 @@
         <v>2016</v>
       </c>
       <c r="D352" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -5826,12 +5846,12 @@
         <v>2016</v>
       </c>
       <c r="D353" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -5840,12 +5860,12 @@
         <v>2016</v>
       </c>
       <c r="D354" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -5854,12 +5874,12 @@
         <v>2016</v>
       </c>
       <c r="D355" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -5868,12 +5888,12 @@
         <v>2016</v>
       </c>
       <c r="D356" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -5882,12 +5902,12 @@
         <v>2016</v>
       </c>
       <c r="D357" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -5896,12 +5916,12 @@
         <v>2016</v>
       </c>
       <c r="D358" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -5910,12 +5930,12 @@
         <v>2016</v>
       </c>
       <c r="D359" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -5924,12 +5944,12 @@
         <v>2016</v>
       </c>
       <c r="D360" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -5938,12 +5958,12 @@
         <v>2016</v>
       </c>
       <c r="D361" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -5952,12 +5972,12 @@
         <v>2016</v>
       </c>
       <c r="D362" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -5966,12 +5986,12 @@
         <v>2016</v>
       </c>
       <c r="D363" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -5980,12 +6000,12 @@
         <v>2016</v>
       </c>
       <c r="D364" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -5994,12 +6014,12 @@
         <v>2016</v>
       </c>
       <c r="D365" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -6008,12 +6028,12 @@
         <v>2016</v>
       </c>
       <c r="D366" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -6022,12 +6042,12 @@
         <v>2016</v>
       </c>
       <c r="D367" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -6036,12 +6056,12 @@
         <v>2016</v>
       </c>
       <c r="D368" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -6050,12 +6070,12 @@
         <v>2016</v>
       </c>
       <c r="D369" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -6064,12 +6084,12 @@
         <v>2016</v>
       </c>
       <c r="D370" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -6078,6 +6098,48 @@
         <v>2016</v>
       </c>
       <c r="D371" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>46</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>2016</v>
+      </c>
+      <c r="D372" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>46</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>2016</v>
+      </c>
+      <c r="D373" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>2016</v>
+      </c>
+      <c r="D374" t="s">
         <v>97</v>
       </c>
     </row>

--- a/edited/elective_list/hus.xlsx
+++ b/edited/elective_list/hus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D3ABC4-6456-4CCB-BFA1-AC4670EC9F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE8D1EA-BBA2-4B85-B1EE-A0714EC37BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3324" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="141">
   <si>
     <t>교과목</t>
   </si>
@@ -465,6 +465,10 @@
   </si>
   <si>
     <t>상품의 역사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2515</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1105,7 +1109,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1114,12 +1118,12 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1128,12 +1132,12 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1142,12 +1146,12 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1156,12 +1160,12 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1170,12 +1174,12 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1184,12 +1188,12 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1198,12 +1202,12 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1212,12 +1216,12 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1226,12 +1230,12 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1240,12 +1244,12 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1254,12 +1258,12 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1268,12 +1272,12 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1282,12 +1286,12 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1296,12 +1300,12 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1310,12 +1314,12 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1324,12 +1328,12 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1338,7 +1342,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">

--- a/edited/elective_list/hus.xlsx
+++ b/edited/elective_list/hus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE8D1EA-BBA2-4B85-B1EE-A0714EC37BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D76D5-B8B8-4305-B2B8-7118C8C29848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5328" yWindow="3396" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="152">
   <si>
     <t>교과목</t>
   </si>
@@ -469,6 +469,50 @@
   </si>
   <si>
     <t>GS2515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2581</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 문화의 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2582</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글의 역사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2617</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양 문명의 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20세기 한국여성작가론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대철학 세미나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한문으로 읽는 동양고전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양철학세미나</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="G380" sqref="G380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -933,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -947,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -961,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -975,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -989,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -997,44 +1041,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1045,2381 +1089,2381 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D82" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D99" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
       <c r="C114">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
       <c r="C115">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D115" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D117" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D118" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B120">
         <v>3</v>
       </c>
       <c r="C120">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B129">
         <v>3</v>
       </c>
       <c r="C129">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D129" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D131" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D132" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
       <c r="C134">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D134" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B135">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D135" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B136">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D137" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D138" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D140" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B142">
         <v>3</v>
       </c>
       <c r="C142">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D142" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B146">
         <v>3</v>
       </c>
       <c r="C146">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="C147">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
       <c r="C153">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
       <c r="C155">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B156">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D156" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
       <c r="C161">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D163" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
       <c r="C166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B170">
         <v>3</v>
       </c>
       <c r="C170">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D170" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B171">
         <v>3</v>
       </c>
       <c r="C171">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B172">
         <v>3</v>
       </c>
       <c r="C172">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B173">
         <v>3</v>
       </c>
       <c r="C173">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B175">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D179" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3428,12 +3472,12 @@
         <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3442,12 +3486,12 @@
         <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3456,12 +3500,12 @@
         <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3470,12 +3514,12 @@
         <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3484,12 +3528,12 @@
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3498,12 +3542,12 @@
         <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3512,12 +3556,12 @@
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3526,12 +3570,12 @@
         <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3540,12 +3584,12 @@
         <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3554,12 +3598,12 @@
         <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3568,12 +3612,12 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3582,12 +3626,12 @@
         <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3596,12 +3640,12 @@
         <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3610,12 +3654,12 @@
         <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3624,12 +3668,12 @@
         <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3638,2359 +3682,2359 @@
         <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196">
         <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B198">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B199">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D199" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
       <c r="C201">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D201" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B203">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B204">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D205" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B206">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D206" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D207" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B208">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B209">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D209" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D210" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B211">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D211" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D212" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D213" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D214" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D215" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D216" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B217">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D217" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D218" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B220">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D220" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D221" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D222" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D223" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B224">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D224" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D225" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D226" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D227" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D228" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B229">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D229" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D230" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B231">
         <v>3</v>
       </c>
       <c r="C231">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D231" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B232">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D232" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D233" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D234" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B235">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D235" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D236" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B237">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D237" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D238" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D239" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D240" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D241" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B242">
         <v>3</v>
       </c>
       <c r="C242">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D242" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D243" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B244">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D244" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D246" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D248" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D249" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B250">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D250" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D251" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D252" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D253" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D254" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D255" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D256" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D257" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D258" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B259">
         <v>3</v>
       </c>
       <c r="C259">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D259" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D260" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D261" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C262">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D262" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B263">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D263" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B264">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D264" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B265">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D265" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B266">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D266" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D267" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D268" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D269" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D270" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D271" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D272" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D273" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D274" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D275" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D276" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D277" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D278" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D279" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B280">
         <v>3</v>
       </c>
       <c r="C280">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D280" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B281">
         <v>3</v>
       </c>
       <c r="C281">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D281" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B282">
         <v>3</v>
       </c>
       <c r="C282">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D282" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B283">
         <v>3</v>
       </c>
       <c r="C283">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D283" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B284">
         <v>3</v>
       </c>
       <c r="C284">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D284" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B285">
         <v>3</v>
       </c>
       <c r="C285">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D285" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B286">
         <v>3</v>
       </c>
       <c r="C286">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D286" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B287">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D287" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D288" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D289" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D290" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D291" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B292">
         <v>3</v>
       </c>
       <c r="C292">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D292" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D293" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D294" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B295">
         <v>3</v>
       </c>
       <c r="C295">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D295" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D296" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D297" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D298" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D299" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B300">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D300" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D301" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D302" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B303">
         <v>3</v>
       </c>
       <c r="C303">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D303" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B304">
         <v>3</v>
       </c>
       <c r="C304">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D304" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B305">
         <v>3</v>
       </c>
       <c r="C305">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D305" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B306">
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D306" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D307" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B308">
         <v>3</v>
       </c>
       <c r="C308">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D308" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B309">
         <v>3</v>
       </c>
       <c r="C309">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D309" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B310">
         <v>3</v>
       </c>
       <c r="C310">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D310" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B311">
         <v>3</v>
       </c>
       <c r="C311">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D311" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B312">
         <v>3</v>
       </c>
       <c r="C312">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D312" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>3</v>
       </c>
       <c r="C313">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D313" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B314">
         <v>3</v>
       </c>
       <c r="C314">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D314" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B315">
         <v>3</v>
       </c>
       <c r="C315">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D315" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B316">
         <v>3</v>
       </c>
       <c r="C316">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D316" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B317">
         <v>3</v>
       </c>
       <c r="C317">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D317" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B318">
         <v>3</v>
       </c>
       <c r="C318">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D318" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
       <c r="C319">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D319" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B320">
         <v>3</v>
       </c>
       <c r="C320">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D320" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B321">
         <v>3</v>
       </c>
       <c r="C321">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D321" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B322">
         <v>3</v>
       </c>
       <c r="C322">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D322" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B323">
         <v>3</v>
       </c>
       <c r="C323">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D323" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B324">
         <v>3</v>
       </c>
       <c r="C324">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D324" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B325">
         <v>3</v>
       </c>
       <c r="C325">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D325" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B326">
         <v>3</v>
       </c>
       <c r="C326">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D326" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B327">
         <v>3</v>
       </c>
       <c r="C327">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D327" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B328">
         <v>3</v>
       </c>
       <c r="C328">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D328" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B329">
         <v>3</v>
       </c>
       <c r="C329">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D329" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B330">
         <v>3</v>
       </c>
       <c r="C330">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D330" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B331">
         <v>3</v>
       </c>
       <c r="C331">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D331" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B332">
         <v>3</v>
       </c>
       <c r="C332">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D332" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B333">
         <v>3</v>
       </c>
       <c r="C333">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D333" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B334">
         <v>3</v>
       </c>
       <c r="C334">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D334" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B335">
         <v>3</v>
       </c>
       <c r="C335">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D335" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B336">
         <v>3</v>
       </c>
       <c r="C336">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D336" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B337">
         <v>3</v>
       </c>
       <c r="C337">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D337" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="B338">
         <v>3</v>
       </c>
       <c r="C338">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D338" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
       <c r="C339">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D339" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B340">
         <v>3</v>
       </c>
       <c r="C340">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D340" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B341">
         <v>3</v>
       </c>
       <c r="C341">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D341" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B342">
         <v>3</v>
       </c>
       <c r="C342">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D342" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B343">
         <v>3</v>
       </c>
       <c r="C343">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D343" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B344">
         <v>3</v>
       </c>
       <c r="C344">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D344" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D345" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B346">
         <v>3</v>
       </c>
       <c r="C346">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D346" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B347">
         <v>3</v>
       </c>
       <c r="C347">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D347" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B348">
         <v>3</v>
       </c>
       <c r="C348">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D348" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B349">
         <v>3</v>
       </c>
       <c r="C349">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D349" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B350">
         <v>3</v>
       </c>
       <c r="C350">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D350" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B351">
         <v>3</v>
       </c>
       <c r="C351">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D351" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="B352">
         <v>3</v>
       </c>
       <c r="C352">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D352" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B353">
         <v>3</v>
       </c>
       <c r="C353">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D353" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="B354">
         <v>3</v>
       </c>
       <c r="C354">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D354" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B355">
         <v>3</v>
       </c>
       <c r="C355">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D355" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B356">
         <v>3</v>
       </c>
       <c r="C356">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D356" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B357">
         <v>3</v>
       </c>
       <c r="C357">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D357" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B358">
         <v>3</v>
       </c>
       <c r="C358">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D358" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="B359">
         <v>3</v>
       </c>
       <c r="C359">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D359" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B360">
         <v>3</v>
       </c>
       <c r="C360">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D360" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="B361">
         <v>3</v>
       </c>
       <c r="C361">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D361" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B362">
         <v>3</v>
       </c>
       <c r="C362">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D362" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B363">
         <v>3</v>
       </c>
       <c r="C363">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D363" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
@@ -6001,7 +6045,7 @@
         <v>3</v>
       </c>
       <c r="C364">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D364" t="s">
         <v>102</v>
@@ -6015,7 +6059,7 @@
         <v>3</v>
       </c>
       <c r="C365">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D365" t="s">
         <v>103</v>
@@ -6029,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="C366">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D366" t="s">
         <v>104</v>
@@ -6037,16 +6081,16 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B367">
         <v>3</v>
       </c>
       <c r="C367">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D367" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
@@ -6057,94 +6101,192 @@
         <v>3</v>
       </c>
       <c r="C368">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D368" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B369">
         <v>3</v>
       </c>
       <c r="C369">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D369" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B370">
         <v>3</v>
       </c>
       <c r="C370">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D370" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B371">
         <v>3</v>
       </c>
       <c r="C371">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D371" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B372">
         <v>3</v>
       </c>
       <c r="C372">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D372" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B373">
         <v>3</v>
       </c>
       <c r="C373">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D373" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
+        <v>44</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>2021</v>
+      </c>
+      <c r="D374" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>45</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375">
+        <v>2021</v>
+      </c>
+      <c r="D375" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>136</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>2021</v>
+      </c>
+      <c r="D376" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>46</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <v>2021</v>
+      </c>
+      <c r="D377" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>46</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378">
+        <v>2021</v>
+      </c>
+      <c r="D378" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
         <v>47</v>
       </c>
-      <c r="B374">
-        <v>3</v>
-      </c>
-      <c r="C374">
-        <v>2016</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>2021</v>
+      </c>
+      <c r="D379" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>48</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>2021</v>
+      </c>
+      <c r="D380" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>49</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>2021</v>
+      </c>
+      <c r="D381" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
